--- a/EliteMart/EliteMart/Template/Supplier.xlsx
+++ b/EliteMart/EliteMart/Template/Supplier.xlsx
@@ -292,7 +292,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -320,18 +320,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -341,9 +329,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -353,9 +338,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -393,6 +375,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,7 +883,7 @@
   <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.296875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -897,14 +894,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -927,116 +924,116 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1044,7 +1041,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
@@ -1775,1096 +1772,1096 @@
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="31"/>
-      <c r="B109" s="31"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="5"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="31"/>
-      <c r="B111" s="31"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="5"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="5"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="5"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="5"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="31"/>
-      <c r="B119" s="31"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="5"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="5"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="5"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="5"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="5"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="5"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="5"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="5"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="5"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="5"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="5"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="5"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="5"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="5"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="5"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="5"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="5"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="5"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25"/>
-      <c r="B154" s="25"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="5"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="25"/>
-      <c r="B156" s="25"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="24"/>
-      <c r="B157" s="24"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="5"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="25"/>
-      <c r="B158" s="25"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
     </row>
     <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="5"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="24"/>
-      <c r="B161" s="24"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="5"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="4"/>
       <c r="F162" s="3"/>
     </row>
     <row r="163" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="24"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="5"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="4"/>
       <c r="F164" s="3"/>
     </row>
     <row r="165" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="5"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="25"/>
-      <c r="B166" s="25"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="4"/>
       <c r="F166" s="3"/>
     </row>
     <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="24"/>
-      <c r="B167" s="24"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="5"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="4"/>
       <c r="F168" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="5"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="4"/>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="5"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="4"/>
       <c r="F172" s="3"/>
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="24"/>
-      <c r="B173" s="24"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="5"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="4"/>
       <c r="F174" s="3"/>
     </row>
     <row r="175" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="24"/>
-      <c r="B175" s="24"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="5"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="4"/>
       <c r="F176" s="3"/>
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="24"/>
-      <c r="B177" s="24"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="5"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="4"/>
       <c r="F178" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="24"/>
-      <c r="B179" s="24"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="5"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="25"/>
-      <c r="B180" s="25"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="4"/>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="24"/>
-      <c r="B181" s="24"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="5"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="25"/>
-      <c r="B182" s="25"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="4"/>
       <c r="F182" s="3"/>
     </row>
     <row r="183" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="24"/>
-      <c r="B183" s="24"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="5"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="4"/>
       <c r="F184" s="3"/>
     </row>
     <row r="185" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="24"/>
-      <c r="B185" s="24"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="5"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="4"/>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="24"/>
-      <c r="B187" s="24"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="5"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="4"/>
       <c r="F188" s="3"/>
     </row>
     <row r="189" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="24"/>
-      <c r="B189" s="24"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="5"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="25"/>
-      <c r="B190" s="25"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="4"/>
       <c r="F190" s="3"/>
     </row>
     <row r="191" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="24"/>
-      <c r="B191" s="24"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="25"/>
-      <c r="B192" s="25"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="4"/>
       <c r="F192" s="3"/>
     </row>
     <row r="193" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
+      <c r="A193" s="18"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="25"/>
-      <c r="B194" s="25"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="4"/>
       <c r="F194" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="24"/>
-      <c r="B195" s="24"/>
+      <c r="A195" s="18"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="4"/>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="24"/>
-      <c r="B197" s="24"/>
+      <c r="A197" s="18"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="25"/>
-      <c r="B198" s="25"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="4"/>
       <c r="F198" s="3"/>
     </row>
     <row r="199" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="24"/>
-      <c r="B199" s="24"/>
+      <c r="A199" s="18"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="25"/>
-      <c r="B200" s="25"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="4"/>
       <c r="F200" s="3"/>
     </row>
     <row r="201" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="24"/>
-      <c r="B201" s="24"/>
+      <c r="A201" s="18"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="25"/>
-      <c r="B202" s="25"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="4"/>
       <c r="F202" s="3"/>
     </row>
     <row r="203" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="24"/>
-      <c r="B203" s="24"/>
+      <c r="A203" s="18"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="25"/>
-      <c r="B204" s="25"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="4"/>
       <c r="F204" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="24"/>
-      <c r="B205" s="24"/>
+      <c r="A205" s="18"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="4"/>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="24"/>
-      <c r="B207" s="24"/>
+      <c r="A207" s="18"/>
+      <c r="B207" s="18"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="4"/>
       <c r="F208" s="3"/>
     </row>
     <row r="209" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24"/>
+      <c r="A209" s="18"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
+      <c r="A210" s="19"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="4"/>
       <c r="F210" s="3"/>
     </row>
     <row r="211" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24"/>
+      <c r="A211" s="18"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="25"/>
-      <c r="B212" s="25"/>
+      <c r="A212" s="19"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="4"/>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="24"/>
-      <c r="B213" s="24"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="25"/>
-      <c r="B214" s="25"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="4"/>
       <c r="F214" s="3"/>
     </row>
     <row r="215" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="24"/>
-      <c r="B215" s="24"/>
+      <c r="A215" s="18"/>
+      <c r="B215" s="18"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="4"/>
       <c r="F216" s="3"/>
     </row>
     <row r="217" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
+      <c r="A217" s="18"/>
+      <c r="B217" s="18"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="5"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="25"/>
-      <c r="B218" s="25"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="4"/>
       <c r="F218" s="3"/>
     </row>
     <row r="219" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="24"/>
-      <c r="B219" s="24"/>
+      <c r="A219" s="18"/>
+      <c r="B219" s="18"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="5"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="4"/>
       <c r="F220" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="24"/>
-      <c r="B221" s="24"/>
+      <c r="A221" s="18"/>
+      <c r="B221" s="18"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="5"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
+      <c r="A222" s="19"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="4"/>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="24"/>
-      <c r="B223" s="24"/>
+      <c r="A223" s="18"/>
+      <c r="B223" s="18"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="5"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="25"/>
-      <c r="B224" s="25"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="4"/>
       <c r="F224" s="3"/>
     </row>
     <row r="225" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="24"/>
-      <c r="B225" s="24"/>
+      <c r="A225" s="18"/>
+      <c r="B225" s="18"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="5"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="25"/>
-      <c r="B226" s="25"/>
+      <c r="A226" s="19"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="4"/>
       <c r="F226" s="3"/>
     </row>
     <row r="227" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
+      <c r="A227" s="18"/>
+      <c r="B227" s="18"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="5"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="25"/>
-      <c r="B228" s="25"/>
+      <c r="A228" s="19"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="4"/>
       <c r="F228" s="3"/>
     </row>
     <row r="229" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="24"/>
-      <c r="B229" s="24"/>
+      <c r="A229" s="18"/>
+      <c r="B229" s="18"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="5"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
+      <c r="A230" s="19"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="4"/>
       <c r="F230" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="24"/>
-      <c r="B231" s="24"/>
+      <c r="A231" s="18"/>
+      <c r="B231" s="18"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="5"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="4"/>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="24"/>
-      <c r="B233" s="24"/>
+      <c r="A233" s="18"/>
+      <c r="B233" s="18"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="5"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="25"/>
-      <c r="B234" s="25"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="4"/>
       <c r="F234" s="3"/>
     </row>
     <row r="235" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
+      <c r="A235" s="18"/>
+      <c r="B235" s="18"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="5"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="25"/>
-      <c r="B236" s="25"/>
+      <c r="A236" s="19"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="4"/>
       <c r="F236" s="3"/>
     </row>
     <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="24"/>
-      <c r="B237" s="24"/>
+      <c r="A237" s="18"/>
+      <c r="B237" s="18"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="25"/>
-      <c r="B238" s="25"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="4"/>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
+      <c r="A239" s="18"/>
+      <c r="B239" s="18"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="25"/>
-      <c r="B240" s="25"/>
+      <c r="A240" s="19"/>
+      <c r="B240" s="19"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="4"/>
       <c r="F240" s="3"/>
     </row>
     <row r="241" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
+      <c r="A241" s="18"/>
+      <c r="B241" s="18"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="5"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
+      <c r="A242" s="19"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="4"/>
       <c r="F242" s="3"/>
     </row>
     <row r="243" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="24"/>
-      <c r="B243" s="24"/>
+      <c r="A243" s="18"/>
+      <c r="B243" s="18"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="5"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="25"/>
-      <c r="B244" s="25"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="4"/>
       <c r="F244" s="3"/>
     </row>
     <row r="245" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="24"/>
-      <c r="B245" s="24"/>
+      <c r="A245" s="18"/>
+      <c r="B245" s="18"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="5"/>
